--- a/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyleh\source\repos\Insure20230223\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F1E14E-2FA8-4160-8054-5D6DB7A11396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1AD030-0D11-41FF-9B77-79A595ACD735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23490" yWindow="2040" windowWidth="23250" windowHeight="10995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1606,9 +1606,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -7121,7 +7118,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7323,7 +7320,6 @@
       <c r="H8" s="3"/>
       <c r="K8" s="118"/>
       <c r="L8" s="118"/>
-      <c r="O8" s="198"/>
       <c r="R8" s="118"/>
       <c r="S8" s="3"/>
       <c r="V8" s="118"/>
@@ -7349,7 +7345,7 @@
       <c r="L9" s="119"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="162"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="119"/>
@@ -7384,7 +7380,7 @@
       <c r="L10" s="119"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="162"/>
+      <c r="O10" s="11"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="119"/>

--- a/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyleh\source\repos\Insure20230223\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1AD030-0D11-41FF-9B77-79A595ACD735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B137734-78BC-4C1F-9E23-87FEB2D910B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23490" yWindow="2040" windowWidth="23250" windowHeight="10995" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default (Old)" sheetId="13" r:id="rId1"/>
@@ -7118,7 +7118,7 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="O8" sqref="O8:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7320,6 +7320,7 @@
       <c r="H8" s="3"/>
       <c r="K8" s="118"/>
       <c r="L8" s="118"/>
+      <c r="O8" s="118"/>
       <c r="R8" s="118"/>
       <c r="S8" s="3"/>
       <c r="V8" s="118"/>
@@ -7345,7 +7346,7 @@
       <c r="L9" s="119"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
+      <c r="O9" s="119"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
       <c r="R9" s="119"/>
@@ -7380,7 +7381,7 @@
       <c r="L10" s="119"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="119"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="119"/>

--- a/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kyleh\source\repos\Insure20230223\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B137734-78BC-4C1F-9E23-87FEB2D910B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FA7699-BBF0-433D-BF73-905CE2CEE0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,7 +325,7 @@
     <numFmt numFmtId="166" formatCode="&quot;R&quot;\ #,##0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,6 +476,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1053,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1606,6 +1621,76 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -7118,1088 +7203,1089 @@
   <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:O10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="8" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="3" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10" style="3" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="3" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="3" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="11.42578125" style="3" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="202" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="202" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="202" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="202" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="203" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="203" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="202" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="204" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="202" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="202" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="204" customWidth="1"/>
+    <col min="13" max="13" width="9" style="202" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="202" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="204" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="202" customWidth="1"/>
+    <col min="17" max="17" width="10" style="202" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="202" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" style="204" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="202" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="202" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="202" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" style="202" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="202" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="202" customWidth="1"/>
+    <col min="26" max="26" width="11.42578125" style="202" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="32.5703125" style="201" customWidth="1"/>
+    <col min="28" max="16384" width="1.140625" style="201"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="198" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="176"/>
-      <c r="L1" s="176"/>
-      <c r="M1" s="176"/>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="177"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="172" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="199"/>
+      <c r="V1" s="199"/>
+      <c r="W1" s="199"/>
+      <c r="X1" s="199"/>
+      <c r="Y1" s="199"/>
+      <c r="Z1" s="199"/>
+      <c r="AA1" s="200"/>
+    </row>
+    <row r="2" spans="1:27" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="205" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
+      <c r="N3" s="205"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="205"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="205"/>
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V4" s="174" t="s">
+      <c r="V4" s="206" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="174"/>
+      <c r="W4" s="206"/>
+      <c r="X4" s="206"/>
+      <c r="Y4" s="206"/>
+      <c r="Z4" s="206"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="V5" s="174" t="s">
+      <c r="V5" s="206" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="174"/>
-      <c r="X5" s="174"/>
-      <c r="Y5" s="174"/>
-      <c r="Z5" s="174"/>
+      <c r="W5" s="206"/>
+      <c r="X5" s="206"/>
+      <c r="Y5" s="206"/>
+      <c r="Z5" s="206"/>
     </row>
     <row r="7" spans="1:27" ht="62.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="211" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="208" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="207" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="G8" s="118"/>
-      <c r="H8" s="3"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="3"/>
-      <c r="V8" s="118"/>
-      <c r="Y8" s="8"/>
-      <c r="AA8" s="3"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="202"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="O8" s="212"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="202"/>
+      <c r="V8" s="212"/>
+      <c r="Y8" s="203"/>
+      <c r="AA8" s="202"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="173"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="119"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10" t="s">
+      <c r="C9" s="214"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="216"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="215"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="215"/>
+      <c r="U9" s="215"/>
+      <c r="V9" s="217"/>
+      <c r="W9" s="215"/>
+      <c r="X9" s="215"/>
+      <c r="Y9" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
+      <c r="Z9" s="218"/>
+      <c r="AA9" s="218"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="173"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="119"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10" t="s">
+      <c r="C10" s="214"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="215"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="215"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="215"/>
+      <c r="V10" s="217"/>
+      <c r="W10" s="215"/>
+      <c r="X10" s="215"/>
+      <c r="Y10" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
+      <c r="Z10" s="218"/>
+      <c r="AA10" s="218"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X11" s="5"/>
-    </row>
-    <row r="12" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="X11" s="204"/>
+    </row>
+    <row r="12" spans="1:27" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="U12" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="V12" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="W12" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="X12" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" s="2" t="s">
+      <c r="Y12" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="Z12"/>
+      <c r="Z12" s="201"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="202">
         <v>47</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="202">
         <v>43</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="203">
         <v>42158</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="203">
         <v>42249</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="202">
         <v>1571</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="204">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="202">
         <v>416.3</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="202">
         <v>396</v>
       </c>
-      <c r="K13" s="158">
+      <c r="K13" s="219">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="202">
         <v>20</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="202">
         <v>765</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="204">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="202">
         <v>237</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="202">
         <v>160</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="202">
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="204">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3" t="s">
+      <c r="S13" s="202"/>
+      <c r="T13" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="W13" s="5"/>
-      <c r="Y13" s="3" t="s">
+      <c r="W13" s="204"/>
+      <c r="Y13" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="Z13"/>
+      <c r="Z13" s="201"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="202">
         <v>47</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="202">
         <v>43</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="203">
         <v>42158</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="203">
         <v>42249</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="202">
         <v>1571</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="204">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="202">
         <v>416.3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="202">
         <v>396</v>
       </c>
-      <c r="K14" s="158">
+      <c r="K14" s="219">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="202">
         <v>20</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="202">
         <v>765</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="204">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="202">
         <v>237</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="202">
         <v>160</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="202">
         <v>0</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="204">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="202"/>
+      <c r="T14" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="W14" s="5"/>
-      <c r="Y14" s="3" t="s">
+      <c r="W14" s="204"/>
+      <c r="Y14" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="Z14"/>
+      <c r="Z14" s="201"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10">
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="215">
         <v>1571</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10">
+      <c r="H15" s="220"/>
+      <c r="I15" s="215">
         <v>416.3</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="215">
         <v>396</v>
       </c>
-      <c r="K15" s="159">
+      <c r="K15" s="221">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="215">
         <v>20</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="215">
         <v>765</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="220">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="215">
         <v>237</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="215">
         <v>160</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="215">
         <v>0</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="220">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10" t="s">
+      <c r="S15" s="215"/>
+      <c r="T15" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15"/>
+      <c r="U15" s="215"/>
+      <c r="V15" s="215"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="218"/>
+      <c r="Y15" s="218"/>
+      <c r="Z15" s="201"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10">
+      <c r="B16" s="215"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="215">
         <v>1571</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10">
+      <c r="H16" s="220"/>
+      <c r="I16" s="215">
         <v>416.3</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="215">
         <v>396</v>
       </c>
-      <c r="K16" s="159">
+      <c r="K16" s="221">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="215">
         <v>20</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="215">
         <v>765</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="220">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="215">
         <v>237</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="215">
         <v>160</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="215">
         <v>0</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="220">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10" t="s">
+      <c r="S16" s="215"/>
+      <c r="T16" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16"/>
+      <c r="U16" s="215"/>
+      <c r="V16" s="215"/>
+      <c r="W16" s="220"/>
+      <c r="X16" s="218"/>
+      <c r="Y16" s="218"/>
+      <c r="Z16" s="201"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L17" s="3"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="3"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="3"/>
-      <c r="W17" s="5"/>
-      <c r="Z17"/>
-    </row>
-    <row r="18" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="L17" s="202"/>
+      <c r="N17" s="204"/>
+      <c r="O17" s="202"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="202"/>
+      <c r="W17" s="204"/>
+      <c r="Z17" s="201"/>
+    </row>
+    <row r="18" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="208" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="208" t="s">
         <v>66</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="U18" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="208" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="W18" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="X18" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Y18" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="Z18"/>
+      <c r="Z18" s="201"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="202">
         <v>47</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="202">
         <v>43</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="203">
         <v>42158</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="203">
         <v>42249</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="202">
         <v>1571</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="204">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="202">
         <v>416.3</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="202">
         <v>396</v>
       </c>
-      <c r="K19" s="158">
+      <c r="K19" s="219">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="202">
         <v>20</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="202">
         <v>765</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="204">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="202">
         <v>237</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="202">
         <v>160</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="202">
         <v>0</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="204">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3" t="s">
+      <c r="S19" s="202"/>
+      <c r="T19" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="5"/>
-      <c r="Y19" s="3" t="s">
+      <c r="W19" s="204"/>
+      <c r="Y19" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="Z19"/>
+      <c r="Z19" s="201"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="202">
         <v>47</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="202">
         <v>43</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="203">
         <v>42158</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="203">
         <v>42249</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="202">
         <v>1571</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="204">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="202">
         <v>416.3</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="202">
         <v>396</v>
       </c>
-      <c r="K20" s="158">
+      <c r="K20" s="219">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="202">
         <v>20</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="202">
         <v>765</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="204">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="202">
         <v>237</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="202">
         <v>160</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="202">
         <v>0</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="204">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
+      <c r="S20" s="202"/>
+      <c r="T20" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="5"/>
-      <c r="Y20" s="3" t="s">
+      <c r="W20" s="204"/>
+      <c r="Y20" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="Z20"/>
+      <c r="Z20" s="201"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="202">
         <v>47</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="202">
         <v>43</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="203">
         <v>42158</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="203">
         <v>42249</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="202">
         <v>1571</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="204">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="202">
         <v>416.3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="202">
         <v>396</v>
       </c>
-      <c r="K21" s="158">
+      <c r="K21" s="219">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="202">
         <v>20</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="202">
         <v>765</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="204">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="202">
         <v>237</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="202">
         <v>160</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="202">
         <v>0</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="204">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
+      <c r="S21" s="202"/>
+      <c r="T21" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="W21" s="5"/>
-      <c r="Y21" s="3" t="s">
+      <c r="W21" s="204"/>
+      <c r="Y21" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="Z21"/>
+      <c r="Z21" s="201"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="10">
+      <c r="B22" s="215"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="215">
         <v>1571</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10">
+      <c r="H22" s="220"/>
+      <c r="I22" s="215">
         <v>416.3</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="215">
         <v>396</v>
       </c>
-      <c r="K22" s="159">
+      <c r="K22" s="221">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="215">
         <v>20</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="215">
         <v>765</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="220">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="215">
         <v>237</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="215">
         <v>160</v>
       </c>
-      <c r="Q22" s="10">
+      <c r="Q22" s="215">
         <v>0</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="220">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10" t="s">
+      <c r="S22" s="215"/>
+      <c r="T22" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22"/>
+      <c r="U22" s="215"/>
+      <c r="V22" s="215"/>
+      <c r="W22" s="220"/>
+      <c r="X22" s="218"/>
+      <c r="Y22" s="218"/>
+      <c r="Z22" s="201"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10">
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="215">
         <v>1571</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10">
+      <c r="H23" s="220"/>
+      <c r="I23" s="215">
         <v>416.3</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="215">
         <v>396</v>
       </c>
-      <c r="K23" s="159">
+      <c r="K23" s="221">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="215">
         <v>20</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="215">
         <v>765</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="220">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="215">
         <v>237</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="215">
         <v>160</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="215">
         <v>0</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="220">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10" t="s">
+      <c r="S23" s="215"/>
+      <c r="T23" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23"/>
+      <c r="U23" s="215"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="220"/>
+      <c r="X23" s="218"/>
+      <c r="Y23" s="218"/>
+      <c r="Z23" s="201"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L24" s="3"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="3"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="3"/>
-      <c r="W24" s="5"/>
-      <c r="Z24"/>
+      <c r="L24" s="202"/>
+      <c r="N24" s="204"/>
+      <c r="O24" s="202"/>
+      <c r="R24" s="204"/>
+      <c r="S24" s="202"/>
+      <c r="W24" s="204"/>
+      <c r="Z24" s="201"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="202">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="202">
         <v>1</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="202">
         <v>2</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="202">
         <v>3</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="202">
         <v>4</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="202">
         <v>5</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="202">
         <v>6</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="202">
         <v>7</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="202">
         <v>8</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="202">
         <v>9</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="202">
         <v>10</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="202">
         <v>11</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="202">
         <v>12</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="202">
         <v>13</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="202">
         <v>14</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="202">
         <v>15</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="202">
         <v>16</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="202">
         <v>17</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="202">
         <v>18</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="202">
         <v>19</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25" s="202">
         <v>20</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="202">
         <v>21</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="202">
         <v>22</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="202">
         <v>23</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="202">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="S26" s="3"/>
+      <c r="E26" s="202"/>
+      <c r="F26" s="202"/>
+      <c r="H26" s="202"/>
+      <c r="K26" s="202"/>
+      <c r="L26" s="202"/>
+      <c r="O26" s="202"/>
+      <c r="S26" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8211,7 +8297,7 @@
     <mergeCell ref="A3:AA3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateBatchReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TyronR\Desktop\Source\udminsure\UDM.Insurance.Interface\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7F3D6-48AD-4382-96ED-36EBA450F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD7E85F-B085-4357-B8B1-C289FE650FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default (Old)" sheetId="13" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="95">
   <si>
     <t>Campaign</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t xml:space="preserve">Batch Report - </t>
+  </si>
+  <si>
+    <t>PL Week</t>
+  </si>
+  <si>
+    <t>UDM Week</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1067,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1521,6 +1527,18 @@
     <xf numFmtId="9" fontId="21" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1546,6 +1564,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1607,58 +1637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2012,62 +1990,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="173"/>
     </row>
     <row r="3" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="X4" s="138" t="s">
@@ -3118,66 +3096,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="188"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="196"/>
     </row>
     <row r="2" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
     </row>
     <row r="4" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="190"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
     </row>
     <row r="6" spans="1:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -3199,34 +3177,34 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="193"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="201"/>
     </row>
     <row r="8" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="115">
         <v>1</v>
       </c>
@@ -3340,90 +3318,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="188"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="196"/>
     </row>
     <row r="2" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="197" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
     </row>
     <row r="4" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="190"/>
-      <c r="Q5" s="190"/>
-      <c r="R5" s="190"/>
-      <c r="S5" s="190"/>
-      <c r="T5" s="190"/>
-      <c r="U5" s="190"/>
-      <c r="V5" s="190"/>
-      <c r="W5" s="190"/>
-      <c r="X5" s="190"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
     </row>
     <row r="6" spans="1:24" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -3445,42 +3423,42 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
     </row>
     <row r="8" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="115">
         <v>1</v>
       </c>
@@ -3634,102 +3612,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="188"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+      <c r="T1" s="195"/>
+      <c r="U1" s="195"/>
+      <c r="V1" s="195"/>
+      <c r="W1" s="195"/>
+      <c r="X1" s="195"/>
+      <c r="Y1" s="195"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="195"/>
+      <c r="AB1" s="196"/>
     </row>
     <row r="2" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="197" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="189"/>
-      <c r="AB3" s="189"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
     </row>
     <row r="4" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="198" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="190"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="190"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="190"/>
-      <c r="K5" s="190"/>
-      <c r="L5" s="190"/>
-      <c r="M5" s="190"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="190"/>
-      <c r="Q5" s="190"/>
-      <c r="R5" s="190"/>
-      <c r="S5" s="190"/>
-      <c r="T5" s="190"/>
-      <c r="U5" s="190"/>
-      <c r="V5" s="190"/>
-      <c r="W5" s="190"/>
-      <c r="X5" s="190"/>
-      <c r="Y5" s="190"/>
-      <c r="Z5" s="190"/>
-      <c r="AA5" s="190"/>
-      <c r="AB5" s="190"/>
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="198"/>
+      <c r="G5" s="198"/>
+      <c r="H5" s="198"/>
+      <c r="I5" s="198"/>
+      <c r="J5" s="198"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="198"/>
+      <c r="N5" s="198"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="198"/>
+      <c r="Q5" s="198"/>
+      <c r="R5" s="198"/>
+      <c r="S5" s="198"/>
+      <c r="T5" s="198"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
+      <c r="W5" s="198"/>
+      <c r="X5" s="198"/>
+      <c r="Y5" s="198"/>
+      <c r="Z5" s="198"/>
+      <c r="AA5" s="198"/>
+      <c r="AB5" s="198"/>
     </row>
     <row r="6" spans="1:28" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
@@ -3751,46 +3729,46 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="111"/>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="194" t="s">
+      <c r="C7" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="191" t="s">
+      <c r="D7" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="192"/>
-      <c r="O7" s="192"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="192"/>
-      <c r="S7" s="192"/>
-      <c r="T7" s="192"/>
-      <c r="U7" s="192"/>
-      <c r="V7" s="192"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="192"/>
-      <c r="Y7" s="192"/>
-      <c r="Z7" s="192"/>
-      <c r="AA7" s="192"/>
-      <c r="AB7" s="193"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="201"/>
     </row>
     <row r="8" spans="1:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="115">
         <v>1</v>
       </c>
@@ -3985,83 +3963,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="174"/>
-      <c r="S1" s="174"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="174"/>
-      <c r="V1" s="174"/>
-      <c r="W1" s="174"/>
-      <c r="X1" s="174"/>
-      <c r="Y1" s="174"/>
-      <c r="Z1" s="175"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+      <c r="M1" s="178"/>
+      <c r="N1" s="178"/>
+      <c r="O1" s="178"/>
+      <c r="P1" s="178"/>
+      <c r="Q1" s="178"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="178"/>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
     </row>
     <row r="2" spans="1:26" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:26" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="U4" s="172" t="s">
+      <c r="U4" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="172"/>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="172"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="U5" s="172" t="s">
+      <c r="U5" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="176"/>
     </row>
     <row r="7" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -4158,10 +4136,10 @@
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="171"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="10"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -4192,10 +4170,10 @@
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="171"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="10"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -5019,225 +4997,224 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:K10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="201" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="201" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="201" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="202" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="202" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="201" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="203" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="201" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="201" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" style="203" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="201" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="203" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" style="201" customWidth="1"/>
-    <col min="17" max="17" width="10" style="201" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.26953125" style="201" customWidth="1"/>
-    <col min="19" max="19" width="9.7265625" style="203" customWidth="1"/>
-    <col min="20" max="20" width="10.81640625" style="201" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7265625" style="201" customWidth="1"/>
-    <col min="23" max="23" width="9.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="201" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" style="201" customWidth="1"/>
-    <col min="26" max="26" width="11.453125" style="201" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="32.54296875" style="200" customWidth="1"/>
-    <col min="28" max="16384" width="1.1796875" style="200"/>
+    <col min="1" max="1" width="23.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.26953125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.7265625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="3" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="199"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="182"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="V4" s="172" t="s">
+      <c r="V4" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="172"/>
-      <c r="Z4" s="172"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="V5" s="172" t="s">
+      <c r="V5" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
     </row>
     <row r="7" spans="1:27" ht="62.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="206" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="206" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="207" t="s">
+      <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="207" t="s">
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="208" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="205" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="206" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206" t="s">
+      <c r="J7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="209" t="s">
+      <c r="K7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="209" t="s">
+      <c r="L7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="206" t="s">
+      <c r="M7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="206" t="s">
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="209" t="s">
+      <c r="O7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="206" t="s">
+      <c r="P7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="206" t="s">
+      <c r="Q7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="209" t="s">
+      <c r="R7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="206" t="s">
+      <c r="S7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="206" t="s">
+      <c r="T7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="206" t="s">
+      <c r="U7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="206" t="s">
+      <c r="V7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="206" t="s">
+      <c r="W7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="206" t="s">
+      <c r="X7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="205" t="s">
+      <c r="Y7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="206" t="s">
+      <c r="Z7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="205" t="s">
+      <c r="AA7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G8" s="210"/>
-      <c r="H8" s="201"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="210"/>
-      <c r="O8" s="196"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="201"/>
-      <c r="V8" s="210"/>
-      <c r="Y8" s="202"/>
-      <c r="AA8" s="201"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="118"/>
+      <c r="O8" s="167"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="3"/>
+      <c r="V8" s="118"/>
+      <c r="Y8" s="8"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="171"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="10"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -5269,10 +5246,10 @@
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="171"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="10"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -5301,215 +5278,215 @@
       <c r="AA10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="X11" s="203"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="206" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="206" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="207" t="s">
+      <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="207" t="s">
+      <c r="F12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="205" t="s">
+      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="208" t="s">
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="206" t="s">
+      <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="206" t="s">
+      <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="209" t="s">
+      <c r="K12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="206" t="s">
+      <c r="L12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="206" t="s">
+      <c r="M12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="209" t="s">
+      <c r="N12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="206" t="s">
+      <c r="O12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="206" t="s">
+      <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="206" t="s">
+      <c r="Q12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="209" t="s">
+      <c r="R12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="206" t="s">
+      <c r="S12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T12" s="205" t="s">
+      <c r="T12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="206" t="s">
+      <c r="U12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V12" s="206" t="s">
+      <c r="V12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="209" t="s">
+      <c r="W12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="X12" s="206" t="s">
+      <c r="X12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" s="205" t="s">
+      <c r="Y12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z12" s="200"/>
+      <c r="Z12"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="201">
+      <c r="C13" s="3">
         <v>47</v>
       </c>
-      <c r="D13" s="201">
+      <c r="D13" s="3">
         <v>43</v>
       </c>
-      <c r="E13" s="202">
+      <c r="E13" s="8">
         <v>42158</v>
       </c>
-      <c r="F13" s="202">
+      <c r="F13" s="8">
         <v>42249</v>
       </c>
-      <c r="G13" s="201">
+      <c r="G13" s="3">
         <v>1571</v>
       </c>
-      <c r="H13" s="203">
+      <c r="H13" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I13" s="201">
+      <c r="I13" s="3">
         <v>416.3</v>
       </c>
-      <c r="J13" s="201">
+      <c r="J13" s="3">
         <v>396</v>
       </c>
-      <c r="K13" s="211">
+      <c r="K13" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L13" s="201">
+      <c r="L13" s="3">
         <v>20</v>
       </c>
-      <c r="M13" s="201">
+      <c r="M13" s="3">
         <v>765</v>
       </c>
-      <c r="N13" s="203">
+      <c r="N13" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O13" s="201">
+      <c r="O13" s="3">
         <v>237</v>
       </c>
-      <c r="P13" s="201">
+      <c r="P13" s="3">
         <v>160</v>
       </c>
-      <c r="Q13" s="201">
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="203">
+      <c r="R13" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W13" s="203"/>
-      <c r="Y13" s="201" t="s">
+      <c r="W13" s="5"/>
+      <c r="Y13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="200"/>
+      <c r="Z13"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="201" t="s">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="201">
+      <c r="C14" s="3">
         <v>47</v>
       </c>
-      <c r="D14" s="201">
+      <c r="D14" s="3">
         <v>43</v>
       </c>
-      <c r="E14" s="202">
+      <c r="E14" s="8">
         <v>42158</v>
       </c>
-      <c r="F14" s="202">
+      <c r="F14" s="8">
         <v>42249</v>
       </c>
-      <c r="G14" s="201">
+      <c r="G14" s="3">
         <v>1571</v>
       </c>
-      <c r="H14" s="203">
+      <c r="H14" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I14" s="201">
+      <c r="I14" s="3">
         <v>416.3</v>
       </c>
-      <c r="J14" s="201">
+      <c r="J14" s="3">
         <v>396</v>
       </c>
-      <c r="K14" s="211">
+      <c r="K14" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L14" s="201">
+      <c r="L14" s="3">
         <v>20</v>
       </c>
-      <c r="M14" s="201">
+      <c r="M14" s="3">
         <v>765</v>
       </c>
-      <c r="N14" s="203">
+      <c r="N14" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O14" s="201">
+      <c r="O14" s="3">
         <v>237</v>
       </c>
-      <c r="P14" s="201">
+      <c r="P14" s="3">
         <v>160</v>
       </c>
-      <c r="Q14" s="201">
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="203">
+      <c r="R14" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S14" s="201"/>
-      <c r="T14" s="201" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W14" s="203"/>
-      <c r="Y14" s="201" t="s">
+      <c r="W14" s="5"/>
+      <c r="Y14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z14" s="200"/>
+      <c r="Z14"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -5530,7 +5507,7 @@
       <c r="J15" s="10">
         <v>396</v>
       </c>
-      <c r="K15" s="212">
+      <c r="K15" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L15" s="10">
@@ -5563,7 +5540,7 @@
       <c r="W15" s="11"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="200"/>
+      <c r="Z15"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
@@ -5584,7 +5561,7 @@
       <c r="J16" s="10">
         <v>396</v>
       </c>
-      <c r="K16" s="212">
+      <c r="K16" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L16" s="10">
@@ -5617,289 +5594,289 @@
       <c r="W16" s="11"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="200"/>
+      <c r="Z16"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="L17" s="201"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="201"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="201"/>
-      <c r="W17" s="203"/>
-      <c r="Z17" s="200"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="3"/>
+      <c r="W17" s="5"/>
+      <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="206" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="206" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="206" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="207" t="s">
+      <c r="E18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="207" t="s">
+      <c r="F18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="205" t="s">
+      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="208" t="s">
+      <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="206" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="206" t="s">
+      <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="209" t="s">
+      <c r="K18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="206" t="s">
+      <c r="L18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="206" t="s">
+      <c r="M18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="209" t="s">
+      <c r="N18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="206" t="s">
+      <c r="O18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="206" t="s">
+      <c r="P18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="206" t="s">
+      <c r="Q18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="209" t="s">
+      <c r="R18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="206" t="s">
+      <c r="S18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T18" s="205" t="s">
+      <c r="T18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="206" t="s">
+      <c r="U18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="206" t="s">
+      <c r="V18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="209" t="s">
+      <c r="W18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="206" t="s">
+      <c r="X18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="205" t="s">
+      <c r="Y18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z18" s="200"/>
+      <c r="Z18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="201">
+      <c r="C19" s="3">
         <v>47</v>
       </c>
-      <c r="D19" s="201">
+      <c r="D19" s="3">
         <v>43</v>
       </c>
-      <c r="E19" s="202">
+      <c r="E19" s="8">
         <v>42158</v>
       </c>
-      <c r="F19" s="202">
+      <c r="F19" s="8">
         <v>42249</v>
       </c>
-      <c r="G19" s="201">
+      <c r="G19" s="3">
         <v>1571</v>
       </c>
-      <c r="H19" s="203">
+      <c r="H19" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I19" s="201">
+      <c r="I19" s="3">
         <v>416.3</v>
       </c>
-      <c r="J19" s="201">
+      <c r="J19" s="3">
         <v>396</v>
       </c>
-      <c r="K19" s="211">
+      <c r="K19" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L19" s="201">
+      <c r="L19" s="3">
         <v>20</v>
       </c>
-      <c r="M19" s="201">
+      <c r="M19" s="3">
         <v>765</v>
       </c>
-      <c r="N19" s="203">
+      <c r="N19" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O19" s="201">
+      <c r="O19" s="3">
         <v>237</v>
       </c>
-      <c r="P19" s="201">
+      <c r="P19" s="3">
         <v>160</v>
       </c>
-      <c r="Q19" s="201">
+      <c r="Q19" s="3">
         <v>0</v>
       </c>
-      <c r="R19" s="203">
+      <c r="R19" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S19" s="201"/>
-      <c r="T19" s="201" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="203"/>
-      <c r="Y19" s="201" t="s">
+      <c r="W19" s="5"/>
+      <c r="Y19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z19" s="200"/>
+      <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="201" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="201">
+      <c r="C20" s="3">
         <v>47</v>
       </c>
-      <c r="D20" s="201">
+      <c r="D20" s="3">
         <v>43</v>
       </c>
-      <c r="E20" s="202">
+      <c r="E20" s="8">
         <v>42158</v>
       </c>
-      <c r="F20" s="202">
+      <c r="F20" s="8">
         <v>42249</v>
       </c>
-      <c r="G20" s="201">
+      <c r="G20" s="3">
         <v>1571</v>
       </c>
-      <c r="H20" s="203">
+      <c r="H20" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="3">
         <v>416.3</v>
       </c>
-      <c r="J20" s="201">
+      <c r="J20" s="3">
         <v>396</v>
       </c>
-      <c r="K20" s="211">
+      <c r="K20" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L20" s="201">
+      <c r="L20" s="3">
         <v>20</v>
       </c>
-      <c r="M20" s="201">
+      <c r="M20" s="3">
         <v>765</v>
       </c>
-      <c r="N20" s="203">
+      <c r="N20" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O20" s="201">
+      <c r="O20" s="3">
         <v>237</v>
       </c>
-      <c r="P20" s="201">
+      <c r="P20" s="3">
         <v>160</v>
       </c>
-      <c r="Q20" s="201">
+      <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="203">
+      <c r="R20" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S20" s="201"/>
-      <c r="T20" s="201" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="203"/>
-      <c r="Y20" s="201" t="s">
+      <c r="W20" s="5"/>
+      <c r="Y20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="200"/>
+      <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="201" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="201" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="201">
+      <c r="C21" s="3">
         <v>47</v>
       </c>
-      <c r="D21" s="201">
+      <c r="D21" s="3">
         <v>43</v>
       </c>
-      <c r="E21" s="202">
+      <c r="E21" s="8">
         <v>42158</v>
       </c>
-      <c r="F21" s="202">
+      <c r="F21" s="8">
         <v>42249</v>
       </c>
-      <c r="G21" s="201">
+      <c r="G21" s="3">
         <v>1571</v>
       </c>
-      <c r="H21" s="203">
+      <c r="H21" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I21" s="201">
+      <c r="I21" s="3">
         <v>416.3</v>
       </c>
-      <c r="J21" s="201">
+      <c r="J21" s="3">
         <v>396</v>
       </c>
-      <c r="K21" s="211">
+      <c r="K21" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L21" s="201">
+      <c r="L21" s="3">
         <v>20</v>
       </c>
-      <c r="M21" s="201">
+      <c r="M21" s="3">
         <v>765</v>
       </c>
-      <c r="N21" s="203">
+      <c r="N21" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O21" s="201">
+      <c r="O21" s="3">
         <v>237</v>
       </c>
-      <c r="P21" s="201">
+      <c r="P21" s="3">
         <v>160</v>
       </c>
-      <c r="Q21" s="201">
+      <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="203">
+      <c r="R21" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S21" s="201"/>
-      <c r="T21" s="201" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W21" s="203"/>
-      <c r="Y21" s="201" t="s">
+      <c r="W21" s="5"/>
+      <c r="Y21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z21" s="200"/>
+      <c r="Z21"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -5920,7 +5897,7 @@
       <c r="J22" s="10">
         <v>396</v>
       </c>
-      <c r="K22" s="212">
+      <c r="K22" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L22" s="10">
@@ -5953,7 +5930,7 @@
       <c r="W22" s="11"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="200"/>
+      <c r="Z22"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
@@ -5974,7 +5951,7 @@
       <c r="J23" s="10">
         <v>396</v>
       </c>
-      <c r="K23" s="212">
+      <c r="K23" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L23" s="10">
@@ -6007,102 +5984,102 @@
       <c r="W23" s="11"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="200"/>
+      <c r="Z23"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="L24" s="201"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="201"/>
-      <c r="R24" s="203"/>
-      <c r="S24" s="201"/>
-      <c r="W24" s="203"/>
-      <c r="Z24" s="200"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="3"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="3"/>
+      <c r="W24" s="5"/>
+      <c r="Z24"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="201">
+      <c r="A25" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="201">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="201">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="201">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="201">
+      <c r="E25" s="3">
         <v>4</v>
       </c>
-      <c r="F25" s="201">
+      <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="201">
+      <c r="G25" s="3">
         <v>6</v>
       </c>
-      <c r="H25" s="201">
+      <c r="H25" s="3">
         <v>7</v>
       </c>
-      <c r="I25" s="201">
+      <c r="I25" s="3">
         <v>8</v>
       </c>
-      <c r="J25" s="201">
+      <c r="J25" s="3">
         <v>9</v>
       </c>
-      <c r="K25" s="201">
+      <c r="K25" s="3">
         <v>10</v>
       </c>
-      <c r="L25" s="201">
+      <c r="L25" s="3">
         <v>11</v>
       </c>
-      <c r="M25" s="201">
+      <c r="M25" s="3">
         <v>12</v>
       </c>
-      <c r="N25" s="201">
+      <c r="N25" s="3">
         <v>13</v>
       </c>
-      <c r="O25" s="201">
+      <c r="O25" s="3">
         <v>14</v>
       </c>
-      <c r="P25" s="201">
+      <c r="P25" s="3">
         <v>15</v>
       </c>
-      <c r="Q25" s="201">
+      <c r="Q25" s="3">
         <v>16</v>
       </c>
-      <c r="R25" s="201">
+      <c r="R25" s="3">
         <v>17</v>
       </c>
-      <c r="S25" s="201">
+      <c r="S25" s="3">
         <v>18</v>
       </c>
-      <c r="T25" s="201">
+      <c r="T25" s="3">
         <v>19</v>
       </c>
-      <c r="U25" s="201">
+      <c r="U25" s="3">
         <v>20</v>
       </c>
-      <c r="V25" s="201">
+      <c r="V25" s="3">
         <v>21</v>
       </c>
-      <c r="W25" s="201">
+      <c r="W25" s="3">
         <v>22</v>
       </c>
-      <c r="X25" s="201">
+      <c r="X25" s="3">
         <v>23</v>
       </c>
-      <c r="Y25" s="201">
+      <c r="Y25" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="S26" s="201"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6159,70 +6136,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="173"/>
     </row>
     <row r="3" spans="1:25" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="U4" s="172" t="s">
+      <c r="U4" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="172"/>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
       <c r="Y4" s="97"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
@@ -7172,225 +7149,224 @@
   </sheetPr>
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="201" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="201" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" style="201" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="201" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="202" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="202" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1796875" style="201" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="203" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="201" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="201" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" style="203" customWidth="1"/>
-    <col min="13" max="13" width="9" style="201" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="201" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" style="203" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" style="201" customWidth="1"/>
-    <col min="17" max="17" width="10" style="201" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="8.26953125" style="201" customWidth="1"/>
-    <col min="19" max="19" width="3.26953125" style="203" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7265625" style="201" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7265625" style="201" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7265625" style="201" customWidth="1"/>
-    <col min="23" max="23" width="9.54296875" style="201" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" style="201" customWidth="1"/>
-    <col min="25" max="25" width="11.453125" style="201" customWidth="1"/>
-    <col min="26" max="26" width="11.453125" style="201" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="32.54296875" style="200" customWidth="1"/>
-    <col min="28" max="16384" width="1.1796875" style="200"/>
+    <col min="1" max="1" width="23.81640625" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="8" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.81640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="8.26953125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="3.26953125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" style="3" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="3" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="11.453125" style="3" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="32.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="198"/>
-      <c r="K1" s="198"/>
-      <c r="L1" s="198"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="198"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="198"/>
-      <c r="T1" s="198"/>
-      <c r="U1" s="198"/>
-      <c r="V1" s="198"/>
-      <c r="W1" s="198"/>
-      <c r="X1" s="198"/>
-      <c r="Y1" s="198"/>
-      <c r="Z1" s="198"/>
-      <c r="AA1" s="199"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="181"/>
+      <c r="Q1" s="181"/>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="181"/>
+      <c r="Y1" s="181"/>
+      <c r="Z1" s="181"/>
+      <c r="AA1" s="182"/>
     </row>
     <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="204"/>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
-      <c r="M3" s="204"/>
-      <c r="N3" s="204"/>
-      <c r="O3" s="204"/>
-      <c r="P3" s="204"/>
-      <c r="Q3" s="204"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="204"/>
-      <c r="T3" s="204"/>
-      <c r="U3" s="204"/>
-      <c r="V3" s="204"/>
-      <c r="W3" s="204"/>
-      <c r="X3" s="204"/>
-      <c r="Y3" s="204"/>
-      <c r="Z3" s="204"/>
-      <c r="AA3" s="204"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="V4" s="172" t="s">
+      <c r="V4" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="172"/>
-      <c r="Z4" s="172"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="V5" s="172" t="s">
+      <c r="V5" s="176" t="s">
         <v>78</v>
       </c>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
+      <c r="W5" s="176"/>
+      <c r="X5" s="176"/>
+      <c r="Y5" s="176"/>
+      <c r="Z5" s="176"/>
     </row>
     <row r="7" spans="1:27" ht="62.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="206" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="206" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="207" t="s">
+      <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="207" t="s">
+      <c r="F7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="208" t="s">
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="205" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="206" t="s">
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="206" t="s">
+      <c r="J7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K7" s="209" t="s">
+      <c r="K7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="209" t="s">
+      <c r="L7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="206" t="s">
+      <c r="M7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="206" t="s">
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="209" t="s">
+      <c r="O7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="206" t="s">
+      <c r="P7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="206" t="s">
+      <c r="Q7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R7" s="209" t="s">
+      <c r="R7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="206" t="s">
+      <c r="S7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T7" s="206" t="s">
+      <c r="T7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="206" t="s">
+      <c r="U7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="206" t="s">
+      <c r="V7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="206" t="s">
+      <c r="W7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X7" s="206" t="s">
+      <c r="X7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y7" s="205" t="s">
+      <c r="Y7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z7" s="206" t="s">
+      <c r="Z7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA7" s="205" t="s">
+      <c r="AA7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G8" s="210"/>
-      <c r="H8" s="201"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="210"/>
-      <c r="O8" s="196"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="201"/>
-      <c r="V8" s="210"/>
-      <c r="Y8" s="202"/>
-      <c r="AA8" s="201"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="3"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="118"/>
+      <c r="O8" s="167"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="3"/>
+      <c r="V8" s="118"/>
+      <c r="Y8" s="8"/>
+      <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="171"/>
+      <c r="C9" s="175"/>
       <c r="D9" s="10"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -7422,10 +7398,10 @@
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="171"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="10"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -7454,215 +7430,215 @@
       <c r="AA10" s="9"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="X11" s="203"/>
+      <c r="X11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="205" t="s">
+      <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="206" t="s">
+      <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="206" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="207" t="s">
+      <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="207" t="s">
+      <c r="F12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="205" t="s">
+      <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="208" t="s">
+      <c r="H12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="206" t="s">
+      <c r="I12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="206" t="s">
+      <c r="J12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="209" t="s">
+      <c r="K12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="206" t="s">
+      <c r="L12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="206" t="s">
+      <c r="M12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="209" t="s">
+      <c r="N12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="206" t="s">
+      <c r="O12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="206" t="s">
+      <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q12" s="206" t="s">
+      <c r="Q12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="209" t="s">
+      <c r="R12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="206" t="s">
+      <c r="S12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T12" s="205" t="s">
+      <c r="T12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U12" s="206" t="s">
+      <c r="U12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V12" s="206" t="s">
+      <c r="V12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W12" s="209" t="s">
+      <c r="W12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="X12" s="206" t="s">
+      <c r="X12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y12" s="205" t="s">
+      <c r="Y12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z12" s="200"/>
+      <c r="Z12"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A13" s="201" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="201">
+      <c r="C13" s="3">
         <v>47</v>
       </c>
-      <c r="D13" s="201">
+      <c r="D13" s="3">
         <v>43</v>
       </c>
-      <c r="E13" s="202">
+      <c r="E13" s="8">
         <v>42158</v>
       </c>
-      <c r="F13" s="202">
+      <c r="F13" s="8">
         <v>42249</v>
       </c>
-      <c r="G13" s="201">
+      <c r="G13" s="3">
         <v>1571</v>
       </c>
-      <c r="H13" s="203">
+      <c r="H13" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I13" s="201">
+      <c r="I13" s="3">
         <v>416.3</v>
       </c>
-      <c r="J13" s="201">
+      <c r="J13" s="3">
         <v>396</v>
       </c>
-      <c r="K13" s="211">
+      <c r="K13" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L13" s="201">
+      <c r="L13" s="3">
         <v>20</v>
       </c>
-      <c r="M13" s="201">
+      <c r="M13" s="3">
         <v>765</v>
       </c>
-      <c r="N13" s="203">
+      <c r="N13" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O13" s="201">
+      <c r="O13" s="3">
         <v>237</v>
       </c>
-      <c r="P13" s="201">
+      <c r="P13" s="3">
         <v>160</v>
       </c>
-      <c r="Q13" s="201">
+      <c r="Q13" s="3">
         <v>0</v>
       </c>
-      <c r="R13" s="203">
+      <c r="R13" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201" t="s">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W13" s="203"/>
-      <c r="Y13" s="201" t="s">
+      <c r="W13" s="5"/>
+      <c r="Y13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z13" s="200"/>
+      <c r="Z13"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A14" s="201" t="s">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="201">
+      <c r="C14" s="3">
         <v>47</v>
       </c>
-      <c r="D14" s="201">
+      <c r="D14" s="3">
         <v>43</v>
       </c>
-      <c r="E14" s="202">
+      <c r="E14" s="8">
         <v>42158</v>
       </c>
-      <c r="F14" s="202">
+      <c r="F14" s="8">
         <v>42249</v>
       </c>
-      <c r="G14" s="201">
+      <c r="G14" s="3">
         <v>1571</v>
       </c>
-      <c r="H14" s="203">
+      <c r="H14" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I14" s="201">
+      <c r="I14" s="3">
         <v>416.3</v>
       </c>
-      <c r="J14" s="201">
+      <c r="J14" s="3">
         <v>396</v>
       </c>
-      <c r="K14" s="211">
+      <c r="K14" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L14" s="201">
+      <c r="L14" s="3">
         <v>20</v>
       </c>
-      <c r="M14" s="201">
+      <c r="M14" s="3">
         <v>765</v>
       </c>
-      <c r="N14" s="203">
+      <c r="N14" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O14" s="201">
+      <c r="O14" s="3">
         <v>237</v>
       </c>
-      <c r="P14" s="201">
+      <c r="P14" s="3">
         <v>160</v>
       </c>
-      <c r="Q14" s="201">
+      <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="203">
+      <c r="R14" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S14" s="201"/>
-      <c r="T14" s="201" t="s">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W14" s="203"/>
-      <c r="Y14" s="201" t="s">
+      <c r="W14" s="5"/>
+      <c r="Y14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z14" s="200"/>
+      <c r="Z14"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -7683,7 +7659,7 @@
       <c r="J15" s="10">
         <v>396</v>
       </c>
-      <c r="K15" s="212">
+      <c r="K15" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L15" s="10">
@@ -7716,7 +7692,7 @@
       <c r="W15" s="11"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
-      <c r="Z15" s="200"/>
+      <c r="Z15"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
@@ -7737,7 +7713,7 @@
       <c r="J16" s="10">
         <v>396</v>
       </c>
-      <c r="K16" s="212">
+      <c r="K16" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L16" s="10">
@@ -7770,289 +7746,289 @@
       <c r="W16" s="11"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
-      <c r="Z16" s="200"/>
+      <c r="Z16"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="L17" s="201"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="201"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="201"/>
-      <c r="W17" s="203"/>
-      <c r="Z17" s="200"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="3"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="3"/>
+      <c r="W17" s="5"/>
+      <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" ht="58" x14ac:dyDescent="0.35">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="206" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="206" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="206" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="207" t="s">
+      <c r="E18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="207" t="s">
+      <c r="F18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="205" t="s">
+      <c r="G18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="208" t="s">
+      <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="206" t="s">
+      <c r="I18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="206" t="s">
+      <c r="J18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="209" t="s">
+      <c r="K18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="206" t="s">
+      <c r="L18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="206" t="s">
+      <c r="M18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="209" t="s">
+      <c r="N18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="206" t="s">
+      <c r="O18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="206" t="s">
+      <c r="P18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="206" t="s">
+      <c r="Q18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="209" t="s">
+      <c r="R18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="206" t="s">
+      <c r="S18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T18" s="205" t="s">
+      <c r="T18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="206" t="s">
+      <c r="U18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="V18" s="206" t="s">
+      <c r="V18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W18" s="209" t="s">
+      <c r="W18" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="206" t="s">
+      <c r="X18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y18" s="205" t="s">
+      <c r="Y18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z18" s="200"/>
+      <c r="Z18"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="201" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="201">
+      <c r="C19" s="3">
         <v>47</v>
       </c>
-      <c r="D19" s="201">
+      <c r="D19" s="3">
         <v>43</v>
       </c>
-      <c r="E19" s="202">
+      <c r="E19" s="8">
         <v>42158</v>
       </c>
-      <c r="F19" s="202">
+      <c r="F19" s="8">
         <v>42249</v>
       </c>
-      <c r="G19" s="201">
+      <c r="G19" s="3">
         <v>1571</v>
       </c>
-      <c r="H19" s="203">
+      <c r="H19" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I19" s="201">
+      <c r="I19" s="3">
         <v>416.3</v>
       </c>
-      <c r="J19" s="201">
+      <c r="J19" s="3">
         <v>396</v>
       </c>
-      <c r="K19" s="211">
+      <c r="K19" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L19" s="201">
+      <c r="L19" s="3">
         <v>20</v>
       </c>
-      <c r="M19" s="201">
+      <c r="M19" s="3">
         <v>765</v>
       </c>
-      <c r="N19" s="203">
+      <c r="N19" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O19" s="201">
+      <c r="O19" s="3">
         <v>237</v>
       </c>
-      <c r="P19" s="201">
+      <c r="P19" s="3">
         <v>160</v>
       </c>
-      <c r="Q19" s="201">
+      <c r="Q19" s="3">
         <v>0</v>
       </c>
-      <c r="R19" s="203">
+      <c r="R19" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S19" s="201"/>
-      <c r="T19" s="201" t="s">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="203"/>
-      <c r="Y19" s="201" t="s">
+      <c r="W19" s="5"/>
+      <c r="Y19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z19" s="200"/>
+      <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="201" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="201">
+      <c r="C20" s="3">
         <v>47</v>
       </c>
-      <c r="D20" s="201">
+      <c r="D20" s="3">
         <v>43</v>
       </c>
-      <c r="E20" s="202">
+      <c r="E20" s="8">
         <v>42158</v>
       </c>
-      <c r="F20" s="202">
+      <c r="F20" s="8">
         <v>42249</v>
       </c>
-      <c r="G20" s="201">
+      <c r="G20" s="3">
         <v>1571</v>
       </c>
-      <c r="H20" s="203">
+      <c r="H20" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I20" s="201">
+      <c r="I20" s="3">
         <v>416.3</v>
       </c>
-      <c r="J20" s="201">
+      <c r="J20" s="3">
         <v>396</v>
       </c>
-      <c r="K20" s="211">
+      <c r="K20" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L20" s="201">
+      <c r="L20" s="3">
         <v>20</v>
       </c>
-      <c r="M20" s="201">
+      <c r="M20" s="3">
         <v>765</v>
       </c>
-      <c r="N20" s="203">
+      <c r="N20" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O20" s="201">
+      <c r="O20" s="3">
         <v>237</v>
       </c>
-      <c r="P20" s="201">
+      <c r="P20" s="3">
         <v>160</v>
       </c>
-      <c r="Q20" s="201">
+      <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="203">
+      <c r="R20" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S20" s="201"/>
-      <c r="T20" s="201" t="s">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="203"/>
-      <c r="Y20" s="201" t="s">
+      <c r="W20" s="5"/>
+      <c r="Y20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z20" s="200"/>
+      <c r="Z20"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="201" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="201" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="201">
+      <c r="C21" s="3">
         <v>47</v>
       </c>
-      <c r="D21" s="201">
+      <c r="D21" s="3">
         <v>43</v>
       </c>
-      <c r="E21" s="202">
+      <c r="E21" s="8">
         <v>42158</v>
       </c>
-      <c r="F21" s="202">
+      <c r="F21" s="8">
         <v>42249</v>
       </c>
-      <c r="G21" s="201">
+      <c r="G21" s="3">
         <v>1571</v>
       </c>
-      <c r="H21" s="203">
+      <c r="H21" s="5">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I21" s="201">
+      <c r="I21" s="3">
         <v>416.3</v>
       </c>
-      <c r="J21" s="201">
+      <c r="J21" s="3">
         <v>396</v>
       </c>
-      <c r="K21" s="211">
+      <c r="K21" s="168">
         <v>0.25206874602163998</v>
       </c>
-      <c r="L21" s="201">
+      <c r="L21" s="3">
         <v>20</v>
       </c>
-      <c r="M21" s="201">
+      <c r="M21" s="3">
         <v>765</v>
       </c>
-      <c r="N21" s="203">
+      <c r="N21" s="5">
         <v>0.48695098663271003</v>
       </c>
-      <c r="O21" s="201">
+      <c r="O21" s="3">
         <v>237</v>
       </c>
-      <c r="P21" s="201">
+      <c r="P21" s="3">
         <v>160</v>
       </c>
-      <c r="Q21" s="201">
+      <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="203">
+      <c r="R21" s="5">
         <v>0.84086569064289995</v>
       </c>
-      <c r="S21" s="201"/>
-      <c r="T21" s="201" t="s">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="W21" s="203"/>
-      <c r="Y21" s="201" t="s">
+      <c r="W21" s="5"/>
+      <c r="Y21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z21" s="200"/>
+      <c r="Z21"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -8073,7 +8049,7 @@
       <c r="J22" s="10">
         <v>396</v>
       </c>
-      <c r="K22" s="212">
+      <c r="K22" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L22" s="10">
@@ -8106,7 +8082,7 @@
       <c r="W22" s="11"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
-      <c r="Z22" s="200"/>
+      <c r="Z22"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
@@ -8127,7 +8103,7 @@
       <c r="J23" s="10">
         <v>396</v>
       </c>
-      <c r="K23" s="212">
+      <c r="K23" s="169">
         <v>0.25206874602163998</v>
       </c>
       <c r="L23" s="10">
@@ -8160,102 +8136,102 @@
       <c r="W23" s="11"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
-      <c r="Z23" s="200"/>
+      <c r="Z23"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="L24" s="201"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="201"/>
-      <c r="R24" s="203"/>
-      <c r="S24" s="201"/>
-      <c r="W24" s="203"/>
-      <c r="Z24" s="200"/>
+      <c r="L24" s="3"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="3"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="3"/>
+      <c r="W24" s="5"/>
+      <c r="Z24"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25" s="201">
+      <c r="A25" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="201">
+      <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="201">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
-      <c r="D25" s="201">
+      <c r="D25" s="3">
         <v>3</v>
       </c>
-      <c r="E25" s="201">
+      <c r="E25" s="3">
         <v>4</v>
       </c>
-      <c r="F25" s="201">
+      <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="201">
+      <c r="G25" s="3">
         <v>6</v>
       </c>
-      <c r="H25" s="201">
+      <c r="H25" s="3">
         <v>7</v>
       </c>
-      <c r="I25" s="201">
+      <c r="I25" s="3">
         <v>8</v>
       </c>
-      <c r="J25" s="201">
+      <c r="J25" s="3">
         <v>9</v>
       </c>
-      <c r="K25" s="201">
+      <c r="K25" s="3">
         <v>10</v>
       </c>
-      <c r="L25" s="201">
+      <c r="L25" s="3">
         <v>11</v>
       </c>
-      <c r="M25" s="201">
+      <c r="M25" s="3">
         <v>12</v>
       </c>
-      <c r="N25" s="201">
+      <c r="N25" s="3">
         <v>13</v>
       </c>
-      <c r="O25" s="201">
+      <c r="O25" s="3">
         <v>14</v>
       </c>
-      <c r="P25" s="201">
+      <c r="P25" s="3">
         <v>15</v>
       </c>
-      <c r="Q25" s="201">
+      <c r="Q25" s="3">
         <v>16</v>
       </c>
-      <c r="R25" s="201">
+      <c r="R25" s="3">
         <v>17</v>
       </c>
-      <c r="S25" s="201">
+      <c r="S25" s="3">
         <v>18</v>
       </c>
-      <c r="T25" s="201">
+      <c r="T25" s="3">
         <v>19</v>
       </c>
-      <c r="U25" s="201">
+      <c r="U25" s="3">
         <v>20</v>
       </c>
-      <c r="V25" s="201">
+      <c r="V25" s="3">
         <v>21</v>
       </c>
-      <c r="W25" s="201">
+      <c r="W25" s="3">
         <v>22</v>
       </c>
-      <c r="X25" s="201">
+      <c r="X25" s="3">
         <v>23</v>
       </c>
-      <c r="Y25" s="201">
+      <c r="Y25" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="S26" s="201"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="S26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8333,54 +8309,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="172"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="173"/>
     </row>
     <row r="2" spans="1:46" s="41" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
@@ -8425,61 +8401,61 @@
       <c r="AQ2" s="38"/>
     </row>
     <row r="3" spans="1:46" s="41" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="170"/>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="170"/>
-      <c r="AT3" s="170"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
     </row>
     <row r="4" spans="1:46" s="41" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="39"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -8522,8 +8498,8 @@
       <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="39"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -30682,66 +30658,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="168"/>
-      <c r="AK1" s="168"/>
-      <c r="AL1" s="168"/>
-      <c r="AM1" s="168"/>
-      <c r="AN1" s="168"/>
-      <c r="AO1" s="168"/>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="168"/>
-      <c r="AT1" s="168"/>
-      <c r="AU1" s="168"/>
-      <c r="AV1" s="168"/>
-      <c r="AW1" s="168"/>
-      <c r="AX1" s="168"/>
-      <c r="AY1" s="168"/>
-      <c r="AZ1" s="168"/>
-      <c r="BA1" s="168"/>
-      <c r="BB1" s="168"/>
-      <c r="BC1" s="168"/>
-      <c r="BD1" s="168"/>
-      <c r="BE1" s="168"/>
-      <c r="BF1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="172"/>
+      <c r="AA1" s="172"/>
+      <c r="AB1" s="172"/>
+      <c r="AC1" s="172"/>
+      <c r="AD1" s="172"/>
+      <c r="AE1" s="172"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="172"/>
+      <c r="AH1" s="172"/>
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="172"/>
+      <c r="AK1" s="172"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="172"/>
+      <c r="AN1" s="172"/>
+      <c r="AO1" s="172"/>
+      <c r="AP1" s="172"/>
+      <c r="AQ1" s="172"/>
+      <c r="AR1" s="172"/>
+      <c r="AS1" s="172"/>
+      <c r="AT1" s="172"/>
+      <c r="AU1" s="172"/>
+      <c r="AV1" s="172"/>
+      <c r="AW1" s="172"/>
+      <c r="AX1" s="172"/>
+      <c r="AY1" s="172"/>
+      <c r="AZ1" s="172"/>
+      <c r="BA1" s="172"/>
+      <c r="BB1" s="172"/>
+      <c r="BC1" s="172"/>
+      <c r="BD1" s="172"/>
+      <c r="BE1" s="172"/>
+      <c r="BF1" s="173"/>
     </row>
     <row r="2" spans="1:58" s="41" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
@@ -30795,73 +30771,73 @@
       <c r="BB2" s="38"/>
     </row>
     <row r="3" spans="1:58" s="41" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
-      <c r="AJ3" s="170"/>
-      <c r="AK3" s="170"/>
-      <c r="AL3" s="170"/>
-      <c r="AM3" s="170"/>
-      <c r="AN3" s="170"/>
-      <c r="AO3" s="170"/>
-      <c r="AP3" s="170"/>
-      <c r="AQ3" s="170"/>
-      <c r="AR3" s="170"/>
-      <c r="AS3" s="170"/>
-      <c r="AT3" s="170"/>
-      <c r="AU3" s="170"/>
-      <c r="AV3" s="170"/>
-      <c r="AW3" s="170"/>
-      <c r="AX3" s="170"/>
-      <c r="AY3" s="170"/>
-      <c r="AZ3" s="170"/>
-      <c r="BA3" s="170"/>
-      <c r="BB3" s="170"/>
-      <c r="BC3" s="170"/>
-      <c r="BD3" s="170"/>
-      <c r="BE3" s="170"/>
-      <c r="BF3" s="170"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="174"/>
+      <c r="AM3" s="174"/>
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
+      <c r="AU3" s="174"/>
+      <c r="AV3" s="174"/>
+      <c r="AW3" s="174"/>
+      <c r="AX3" s="174"/>
+      <c r="AY3" s="174"/>
+      <c r="AZ3" s="174"/>
+      <c r="BA3" s="174"/>
+      <c r="BB3" s="174"/>
+      <c r="BC3" s="174"/>
+      <c r="BD3" s="174"/>
+      <c r="BE3" s="174"/>
+      <c r="BF3" s="174"/>
     </row>
     <row r="4" spans="1:58" s="41" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
       <c r="D4" s="39"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
@@ -30913,8 +30889,8 @@
       <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
       <c r="D5" s="39"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -53204,22 +53180,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="173"/>
     </row>
     <row r="2" spans="1:14" s="41" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
@@ -53238,29 +53214,29 @@
       <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" s="41" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
     </row>
     <row r="4" spans="1:14" s="41" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="39"/>
@@ -53277,10 +53253,10 @@
       <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="178">
+      <c r="B5" s="186">
         <v>42490.512465277781</v>
       </c>
-      <c r="C5" s="178"/>
+      <c r="C5" s="186"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="39"/>
@@ -53386,11 +53362,11 @@
       <c r="N8" s="38"/>
     </row>
     <row r="9" spans="1:14" s="41" customFormat="1" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="179" t="s">
+      <c r="A9" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="180"/>
-      <c r="C9" s="181"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="189"/>
       <c r="D9" s="92"/>
       <c r="E9" s="92"/>
       <c r="F9" s="129"/>
@@ -53549,14 +53525,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="171" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="173"/>
       <c r="G1" s="100"/>
       <c r="H1" s="100"/>
       <c r="I1" s="100"/>
@@ -53630,14 +53606,14 @@
       <c r="AL2" s="41"/>
     </row>
     <row r="3" spans="1:38" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
       <c r="G3" s="99"/>
       <c r="H3" s="99"/>
       <c r="I3" s="99"/>
@@ -53676,8 +53652,8 @@
         <v>42</v>
       </c>
       <c r="B4" s="37"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
       <c r="E4" s="39"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -53718,8 +53694,8 @@
         <v>43</v>
       </c>
       <c r="B5" s="37"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
       <c r="E5" s="39"/>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -53757,10 +53733,10 @@
     </row>
     <row r="6" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="182" t="s">
+      <c r="A7" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="183"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="101" t="s">
         <v>62</v>
       </c>
@@ -53775,8 +53751,8 @@
       </c>
     </row>
     <row r="8" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="184"/>
-      <c r="B8" s="185"/>
+      <c r="A8" s="192"/>
+      <c r="B8" s="193"/>
       <c r="C8" s="103"/>
       <c r="D8" s="103"/>
       <c r="E8" s="103"/>
